--- a/biology/Zoologie/Herona_marathus/Herona_marathus.xlsx
+++ b/biology/Zoologie/Herona_marathus/Herona_marathus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Herona marathus est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Apaturinae et au genre Herona.
 </t>
@@ -511,17 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Herona marathus a été nommé par Henry Doubleday en 1848[1].
-Noms vernaculaires
-Herona marathus se nomme Pascha en anglais.
-Sous-espèces
-Herona marathus mathus
-Herona marathus andamana Moore ;
-Herona marathus angustata Moore, [1879] ;
-Herona marathus marathon Fruhstorfer, 1906 ;
-Herona marathus stellaris Tsukada, 1991[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Herona marathus a été nommé par Henry Doubleday en 1848.
+</t>
         </is>
       </c>
     </row>
@@ -546,10 +553,89 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Herona marathus se nomme Pascha en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Herona_marathus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herona_marathus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Herona marathus mathus
+Herona marathus andamana Moore ;
+Herona marathus angustata Moore,  ;
+Herona marathus marathon Fruhstorfer, 1906 ;
+Herona marathus stellaris Tsukada, 1991.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Herona_marathus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herona_marathus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un grand papillon marron rayé de bandes de couleur blanche ou jaune.
 Le revers est lui aussi rayé mais de tons moins contrastés.
@@ -557,69 +643,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Herona_marathus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Herona_marathus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Herona_marathus</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Herona_marathus</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Asie du sud-est dans le nord-ouest de l'Inde (Sikkim et Assam) en Birmanie, Thaïlande, Laos, nord du Vietnam et dans les iles Adaman et Langkawi[1].
-Biotope
-Il réside en montagne entre 600 et 1200 mètres.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -641,12 +664,84 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Asie du sud-est dans le nord-ouest de l'Inde (Sikkim et Assam) en Birmanie, Thaïlande, Laos, nord du Vietnam et dans les iles Adaman et Langkawi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Herona_marathus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herona_marathus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en montagne entre 600 et 1200 mètres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Herona_marathus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herona_marathus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce papillon figure sur une émission du Laos de 1982 (valeur faciale : 1 k)[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon figure sur une émission du Laos de 1982 (valeur faciale : 1 k).
 </t>
         </is>
       </c>
